--- a/WaterStability.xlsx
+++ b/WaterStability.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6954853A-1CAF-4397-A49E-A5D3D5CE784C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A353AACB-D0B2-4E7F-8FC2-23EE34A80F52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{15FEE215-EFAB-4EB2-9A7B-0B4F35A3220B}"/>
+    <workbookView xWindow="-23148" yWindow="-60" windowWidth="23256" windowHeight="12576" xr2:uid="{15FEE215-EFAB-4EB2-9A7B-0B4F35A3220B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="7" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="87">
   <si>
     <t>MOF</t>
   </si>
@@ -259,6 +262,42 @@
   </si>
   <si>
     <t>SA</t>
+  </si>
+  <si>
+    <t>MIL-101(Cr)</t>
+  </si>
+  <si>
+    <t>DUT-4</t>
+  </si>
+  <si>
+    <t>2,6-Napthalenedicarboxylic Acid</t>
+  </si>
+  <si>
+    <t>ZIF-90</t>
+  </si>
+  <si>
+    <t>Imidazolecarboxaldehyde</t>
+  </si>
+  <si>
+    <t>MIL-140A</t>
+  </si>
+  <si>
+    <t>MIL-140B</t>
+  </si>
+  <si>
+    <t>MIL-140C</t>
+  </si>
+  <si>
+    <t>4,4'-Biphenyldicarboxylic Acid</t>
+  </si>
+  <si>
+    <t>MIL-96 (Al)</t>
+  </si>
+  <si>
+    <t>ZIF-71</t>
+  </si>
+  <si>
+    <t>4,5-Dichlorimidazole</t>
   </si>
 </sst>
 </file>
@@ -294,8 +333,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -311,6 +353,815 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Raw"/>
+      <sheetName val="Linker and Metal Data"/>
+      <sheetName val="Thermal"/>
+      <sheetName val="Water"/>
+      <sheetName val="Linker Characterization"/>
+      <sheetName val="Water Stability Criteria"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>Al</v>
+          </cell>
+          <cell r="B2">
+            <v>1.61</v>
+          </cell>
+          <cell r="C2">
+            <v>3</v>
+          </cell>
+          <cell r="D2">
+            <v>0</v>
+          </cell>
+          <cell r="F2" t="str">
+            <v>1,3,5-tris(1H-1,2,3-triazol-5-yl)benzene)</v>
+          </cell>
+          <cell r="G2">
+            <v>9.3000000000000007</v>
+          </cell>
+          <cell r="H2">
+            <v>9.3000000000000007</v>
+          </cell>
+          <cell r="I2">
+            <v>279.26</v>
+          </cell>
+          <cell r="J2">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>Cd</v>
+          </cell>
+          <cell r="B3">
+            <v>1.69</v>
+          </cell>
+          <cell r="C3">
+            <v>2</v>
+          </cell>
+          <cell r="D3">
+            <v>10</v>
+          </cell>
+          <cell r="F3" t="str">
+            <v>1,3,5-tris(1H-pyrazol-4-yl)benzene</v>
+          </cell>
+          <cell r="G3">
+            <v>14.4</v>
+          </cell>
+          <cell r="H3">
+            <v>14.4</v>
+          </cell>
+          <cell r="I3" t="str">
+            <v>276.3 </v>
+          </cell>
+          <cell r="J3">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>Co</v>
+          </cell>
+          <cell r="B4">
+            <v>1.88</v>
+          </cell>
+          <cell r="C4">
+            <v>2</v>
+          </cell>
+          <cell r="D4">
+            <v>7</v>
+          </cell>
+          <cell r="F4" t="str">
+            <v>1,3,5-tris(2H-tetrazol-5-yl)benzene)</v>
+          </cell>
+          <cell r="G4">
+            <v>4.5999999999999996</v>
+          </cell>
+          <cell r="H4">
+            <v>4.5999999999999996</v>
+          </cell>
+          <cell r="I4">
+            <v>282.3</v>
+          </cell>
+          <cell r="J4">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>Cr</v>
+          </cell>
+          <cell r="B5">
+            <v>1.66</v>
+          </cell>
+          <cell r="C5">
+            <v>3</v>
+          </cell>
+          <cell r="D5">
+            <v>3</v>
+          </cell>
+          <cell r="F5" t="str">
+            <v>3-methyl-1,2,4-triazole</v>
+          </cell>
+          <cell r="G5">
+            <v>9.3000000000000007</v>
+          </cell>
+          <cell r="H5">
+            <v>9.3000000000000007</v>
+          </cell>
+          <cell r="I5">
+            <v>83.09</v>
+          </cell>
+          <cell r="J5">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>Cu</v>
+          </cell>
+          <cell r="B6">
+            <v>1.9</v>
+          </cell>
+          <cell r="C6">
+            <v>2</v>
+          </cell>
+          <cell r="D6">
+            <v>9</v>
+          </cell>
+          <cell r="F6" t="str">
+            <v>Benzimidazole</v>
+          </cell>
+          <cell r="G6">
+            <v>12.25</v>
+          </cell>
+          <cell r="H6">
+            <v>12.25</v>
+          </cell>
+          <cell r="I6">
+            <v>118.14</v>
+          </cell>
+          <cell r="J6">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>Fe</v>
+          </cell>
+          <cell r="B7">
+            <v>1.83</v>
+          </cell>
+          <cell r="C7">
+            <v>2</v>
+          </cell>
+          <cell r="D7">
+            <v>6</v>
+          </cell>
+          <cell r="F7" t="str">
+            <v>Butylimidazole</v>
+          </cell>
+          <cell r="G7">
+            <v>13.7</v>
+          </cell>
+          <cell r="H7">
+            <v>13.7</v>
+          </cell>
+          <cell r="I7">
+            <v>124.18</v>
+          </cell>
+          <cell r="J7">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>Mg</v>
+          </cell>
+          <cell r="B8">
+            <v>1.31</v>
+          </cell>
+          <cell r="C8">
+            <v>2</v>
+          </cell>
+          <cell r="D8">
+            <v>0</v>
+          </cell>
+          <cell r="F8" t="str">
+            <v>Chlorobenzimidazole</v>
+          </cell>
+          <cell r="G8">
+            <v>11.65</v>
+          </cell>
+          <cell r="H8">
+            <v>11.65</v>
+          </cell>
+          <cell r="I8">
+            <v>152.58000000000001</v>
+          </cell>
+          <cell r="J8">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>Mn</v>
+          </cell>
+          <cell r="B9">
+            <v>1.55</v>
+          </cell>
+          <cell r="C9">
+            <v>2</v>
+          </cell>
+          <cell r="D9">
+            <v>5</v>
+          </cell>
+          <cell r="F9" t="str">
+            <v>Ethylimidazole</v>
+          </cell>
+          <cell r="G9">
+            <v>13.8</v>
+          </cell>
+          <cell r="H9">
+            <v>13.8</v>
+          </cell>
+          <cell r="I9">
+            <v>96.1</v>
+          </cell>
+          <cell r="J9">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>Mo</v>
+          </cell>
+          <cell r="B10">
+            <v>2.16</v>
+          </cell>
+          <cell r="C10">
+            <v>2</v>
+          </cell>
+          <cell r="D10">
+            <v>4</v>
+          </cell>
+          <cell r="F10" t="str">
+            <v>Imidazole</v>
+          </cell>
+          <cell r="G10">
+            <v>13.5</v>
+          </cell>
+          <cell r="H10">
+            <v>13.5</v>
+          </cell>
+          <cell r="I10">
+            <v>68.08</v>
+          </cell>
+          <cell r="J10">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>Ni</v>
+          </cell>
+          <cell r="B11">
+            <v>1.91</v>
+          </cell>
+          <cell r="C11">
+            <v>2</v>
+          </cell>
+          <cell r="D11">
+            <v>8</v>
+          </cell>
+          <cell r="F11" t="str">
+            <v>Isophthalic Acid</v>
+          </cell>
+          <cell r="G11" t="str">
+            <v>3.7, 4.6</v>
+          </cell>
+          <cell r="H11">
+            <v>4.1500000000000004</v>
+          </cell>
+          <cell r="I11">
+            <v>166.13</v>
+          </cell>
+          <cell r="J11">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>V</v>
+          </cell>
+          <cell r="B12">
+            <v>1.63</v>
+          </cell>
+          <cell r="C12">
+            <v>4</v>
+          </cell>
+          <cell r="D12">
+            <v>1</v>
+          </cell>
+          <cell r="F12" t="str">
+            <v>Methylimidazole</v>
+          </cell>
+          <cell r="G12">
+            <v>13.92</v>
+          </cell>
+          <cell r="H12">
+            <v>13.92</v>
+          </cell>
+          <cell r="I12">
+            <v>82.1</v>
+          </cell>
+          <cell r="J12">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>Zn</v>
+          </cell>
+          <cell r="B13">
+            <v>1.65</v>
+          </cell>
+          <cell r="C13">
+            <v>2</v>
+          </cell>
+          <cell r="D13">
+            <v>10</v>
+          </cell>
+          <cell r="F13" t="str">
+            <v>Nitroimidazole</v>
+          </cell>
+          <cell r="G13">
+            <v>7.74</v>
+          </cell>
+          <cell r="H13">
+            <v>7.74</v>
+          </cell>
+          <cell r="I13">
+            <v>113.07</v>
+          </cell>
+          <cell r="J13">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>Zr</v>
+          </cell>
+          <cell r="B14">
+            <v>1.33</v>
+          </cell>
+          <cell r="C14">
+            <v>4</v>
+          </cell>
+          <cell r="D14">
+            <v>0</v>
+          </cell>
+          <cell r="F14" t="str">
+            <v>Propylimidazole</v>
+          </cell>
+          <cell r="G14">
+            <v>13.7</v>
+          </cell>
+          <cell r="H14">
+            <v>13.7</v>
+          </cell>
+          <cell r="I14">
+            <v>110.16</v>
+          </cell>
+          <cell r="J14">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="F15" t="str">
+            <v>Purine</v>
+          </cell>
+          <cell r="G15">
+            <v>9.31</v>
+          </cell>
+          <cell r="H15">
+            <v>9.31</v>
+          </cell>
+          <cell r="I15">
+            <v>120.11</v>
+          </cell>
+          <cell r="J15">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="F16" t="str">
+            <v>Terepthalic Acid</v>
+          </cell>
+          <cell r="G16" t="str">
+            <v>3.54, 4.46</v>
+          </cell>
+          <cell r="H16">
+            <v>4</v>
+          </cell>
+          <cell r="I16">
+            <v>166.13</v>
+          </cell>
+          <cell r="J16">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="F17" t="str">
+            <v>Trimesic Acid</v>
+          </cell>
+          <cell r="G17" t="str">
+            <v>2.12, 4.19, 5.18</v>
+          </cell>
+          <cell r="H17">
+            <v>3.83</v>
+          </cell>
+          <cell r="I17">
+            <v>210.14</v>
+          </cell>
+          <cell r="J17">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="F18" t="str">
+            <v>Dioxobenzenedicarboxylate</v>
+          </cell>
+          <cell r="H18">
+            <v>4.18</v>
+          </cell>
+          <cell r="I18">
+            <v>198.13</v>
+          </cell>
+          <cell r="J18">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="F19" t="str">
+            <v>2,6-Napthalenedicarboxylic Acid</v>
+          </cell>
+          <cell r="H19">
+            <v>4.2</v>
+          </cell>
+          <cell r="I19">
+            <v>216.19</v>
+          </cell>
+          <cell r="J19">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="F20" t="str">
+            <v>4,4'-Biphenyldicarboxylic Acid</v>
+          </cell>
+          <cell r="H20">
+            <v>4.2</v>
+          </cell>
+          <cell r="I20">
+            <v>242.23</v>
+          </cell>
+          <cell r="J20">
+            <v>4</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3">
+        <row r="2">
+          <cell r="B2" t="str">
+            <v>1,3,5-tris(1H-pyrazol-4-yl)benzene</v>
+          </cell>
+          <cell r="C2" t="str">
+            <v>Co</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3" t="str">
+            <v>Trimesic Acid</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>Mo</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4" t="str">
+            <v>1,3,5-tris(2H-tetrazol-5-yl)benzene)</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>Mn</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5" t="str">
+            <v>Methylimidazole</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>Fe</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6" t="str">
+            <v>Trimesic Acid</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v>Ni</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7" t="str">
+            <v>Terepthalic Acid</v>
+          </cell>
+          <cell r="C7" t="str">
+            <v>Zn</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8" t="str">
+            <v>Imidazole</v>
+          </cell>
+          <cell r="C8" t="str">
+            <v>Mg</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9" t="str">
+            <v>Methylimidazole</v>
+          </cell>
+          <cell r="C9" t="str">
+            <v>Mn</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10" t="str">
+            <v>Nitroimidazole</v>
+          </cell>
+          <cell r="C10" t="str">
+            <v>Co</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11" t="str">
+            <v>Terepthalic Acid</v>
+          </cell>
+          <cell r="C11" t="str">
+            <v>Al</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12" t="str">
+            <v>Trimesic Acid</v>
+          </cell>
+          <cell r="C12" t="str">
+            <v>Cu</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13" t="str">
+            <v>Purine</v>
+          </cell>
+          <cell r="C13" t="str">
+            <v>Zn</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14" t="str">
+            <v>Benzimidazole</v>
+          </cell>
+          <cell r="C14" t="str">
+            <v>Zn</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15" t="str">
+            <v>Methylimidazole</v>
+          </cell>
+          <cell r="C15" t="str">
+            <v>Co</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16" t="str">
+            <v>Terepthalic Acid</v>
+          </cell>
+          <cell r="C16" t="str">
+            <v>V</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17" t="str">
+            <v>Isophthalic Acid</v>
+          </cell>
+          <cell r="C17" t="str">
+            <v>Co</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18" t="str">
+            <v>1,3,5-tris(1H-1,2,3-triazol-5-yl)benzene)</v>
+          </cell>
+          <cell r="C18" t="str">
+            <v>Co</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19" t="str">
+            <v>Benzimidazole</v>
+          </cell>
+          <cell r="C19" t="str">
+            <v>Zn</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="B20" t="str">
+            <v>1,3,5-tris(1H-pyrazol-4-yl)benzene</v>
+          </cell>
+          <cell r="C20" t="str">
+            <v>Cu</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="B21" t="str">
+            <v>Nitroimidazole</v>
+          </cell>
+          <cell r="C21" t="str">
+            <v>Co</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="B22" t="str">
+            <v>Terepthalic Acid</v>
+          </cell>
+          <cell r="C22" t="str">
+            <v>Fe</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="B23" t="str">
+            <v>1,3,5-tris(1H-pyrazol-4-yl)benzene</v>
+          </cell>
+          <cell r="C23" t="str">
+            <v>Zn</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="B24" t="str">
+            <v>Trimesic Acid</v>
+          </cell>
+          <cell r="C24" t="str">
+            <v>Al</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="B25" t="str">
+            <v>Trimesic Acid</v>
+          </cell>
+          <cell r="C25" t="str">
+            <v>Fe</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="B26" t="str">
+            <v>Ethylimidazole</v>
+          </cell>
+          <cell r="C26" t="str">
+            <v>Zn</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="B27" t="str">
+            <v>3-methyl-1,2,4-triazole</v>
+          </cell>
+          <cell r="C27" t="str">
+            <v>Zn</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="B28" t="str">
+            <v>Terepthalic Acid</v>
+          </cell>
+          <cell r="C28" t="str">
+            <v>Cr</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="B29" t="str">
+            <v>Terepthalic Acid</v>
+          </cell>
+          <cell r="C29" t="str">
+            <v>Zr</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="B30" t="str">
+            <v>Methylimidazole</v>
+          </cell>
+          <cell r="C30" t="str">
+            <v>Zn</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="B31" t="str">
+            <v>Terepthalic Acid</v>
+          </cell>
+          <cell r="C31" t="str">
+            <v>Cr</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="B32" t="str">
+            <v>1,3,5-tris(1H-1,2,3-triazol-5-yl)benzene)</v>
+          </cell>
+          <cell r="C32" t="str">
+            <v>Cu</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="B33" t="str">
+            <v>1,3,5-tris(1H-pyrazol-4-yl)benzene</v>
+          </cell>
+          <cell r="C33" t="str">
+            <v>Ni</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="B34" t="str">
+            <v>Trimesic Acid</v>
+          </cell>
+          <cell r="C34" t="str">
+            <v>Cr</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="B35" t="str">
+            <v>2,6-Napthalenedicarboxylic Acid</v>
+          </cell>
+          <cell r="C35" t="str">
+            <v>Al</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="C36" t="str">
+            <v>Zn</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="B37" t="str">
+            <v>Terepthalic Acid</v>
+          </cell>
+          <cell r="C37" t="str">
+            <v>Zr</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="B38" t="str">
+            <v>2,6-Napthalenedicarboxylic Acid</v>
+          </cell>
+          <cell r="C38" t="str">
+            <v>Zr</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="B39" t="str">
+            <v>4,4'-Biphenyldicarboxylic Acid</v>
+          </cell>
+          <cell r="C39" t="str">
+            <v>Zr</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="B40" t="str">
+            <v>Trimesic Acid</v>
+          </cell>
+          <cell r="C40" t="str">
+            <v>Al</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="C41" t="str">
+            <v>Zn</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -610,15 +1461,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34345DAA-7212-411E-A3DB-A54C11F5F445}">
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="N41" sqref="N41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -664,10 +1517,10 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>78</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -676,151 +1529,175 @@
         <v>27</v>
       </c>
       <c r="E2">
-        <v>0.2</v>
+        <f t="shared" ref="E2:E41" si="0">IF(D2="Imidazolate",1,IF(D2="Triazolate",2,IF(D2="Tetrazolate",3,IF(D2="Carboxylate",5, IF(D2="Pyrazolate",4)))))</f>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.85069444444444442</v>
+        <v>10</v>
       </c>
       <c r="G2">
+        <f>INDEX('[1]Linker and Metal Data'!$A$2:$D$14, MATCH([1]Water!C36,'[1]Linker and Metal Data'!$A$2:$A$14,0),4)</f>
+        <v>10</v>
+      </c>
+      <c r="H2" s="1">
+        <f>INDEX('[1]Linker and Metal Data'!$A$2:$D$14, MATCH([1]Water!C36,'[1]Linker and Metal Data'!$A$2:$A$14,0),2)</f>
+        <v>1.65</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="J2" s="1">
+        <v>96.09</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <v>1900</v>
+      </c>
+      <c r="M2">
         <v>1</v>
-      </c>
-      <c r="H2">
-        <v>0.76388888888888884</v>
-      </c>
-      <c r="I2">
-        <v>0.5</v>
-      </c>
-      <c r="J2">
-        <v>0.85069444444444442</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
-      <c r="L2">
-        <v>0.54064516129032258</v>
-      </c>
-      <c r="M2">
-        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.27777777777777779</v>
+        <f>INDEX('[1]Linker and Metal Data'!$F$2:$H$20, MATCH([1]Water!B4,'[1]Linker and Metal Data'!$F$2:$F$20,0),3)</f>
+        <v>4.5999999999999996</v>
       </c>
       <c r="G3">
+        <f>INDEX('[1]Linker and Metal Data'!$A$2:$D$14, MATCH([1]Water!C4,'[1]Linker and Metal Data'!$A$2:$A$14,0),4)</f>
+        <v>5</v>
+      </c>
+      <c r="H3" s="1">
+        <f>INDEX('[1]Linker and Metal Data'!$A$2:$D$14, MATCH([1]Water!C4,'[1]Linker and Metal Data'!$A$2:$A$14,0),2)</f>
+        <v>1.55</v>
+      </c>
+      <c r="I3">
+        <f>INDEX('[1]Linker and Metal Data'!$A$2:$D$14, MATCH([1]Water!C4,'[1]Linker and Metal Data'!$A$2:$A$14,0),3)</f>
+        <v>2</v>
+      </c>
+      <c r="J3" s="1">
+        <f>INDEX('[1]Linker and Metal Data'!$F$2:$I$20,MATCH([1]Water!B4,'[1]Linker and Metal Data'!$F$2:$F$20,0),4)</f>
+        <v>282.3</v>
+      </c>
+      <c r="K3">
+        <f>INDEX('[1]Linker and Metal Data'!$F$2:$J$20,MATCH([1]Water!B4,'[1]Linker and Metal Data'!$F$2:$F$20,0),5)</f>
+        <v>6</v>
+      </c>
+      <c r="L3">
+        <v>2400</v>
+      </c>
+      <c r="M3">
         <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0.74537037037037035</v>
-      </c>
-      <c r="I3">
-        <v>0.75</v>
-      </c>
-      <c r="J3">
-        <v>0.27777777777777779</v>
-      </c>
-      <c r="K3">
-        <v>4</v>
-      </c>
-      <c r="L3">
-        <v>0.4096774193548387</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="E4">
-        <v>0.8</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="F4">
+        <f>INDEX('[1]Linker and Metal Data'!$F$2:$H$20, MATCH([1]Water!B18,'[1]Linker and Metal Data'!$F$2:$F$20,0),3)</f>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="G4">
+        <f>INDEX('[1]Linker and Metal Data'!$A$2:$D$14, MATCH([1]Water!C18,'[1]Linker and Metal Data'!$A$2:$A$14,0),4)</f>
+        <v>7</v>
+      </c>
+      <c r="H4" s="1">
+        <f>INDEX('[1]Linker and Metal Data'!$A$2:$D$14, MATCH([1]Water!C18,'[1]Linker and Metal Data'!$A$2:$A$14,0),2)</f>
+        <v>1.88</v>
+      </c>
+      <c r="I4">
+        <f>INDEX('[1]Linker and Metal Data'!$A$2:$D$14, MATCH([1]Water!C18,'[1]Linker and Metal Data'!$A$2:$A$14,0),3)</f>
+        <v>2</v>
+      </c>
+      <c r="J4" s="1">
+        <f>INDEX('[1]Linker and Metal Data'!$F$2:$I$20,MATCH([1]Water!B18,'[1]Linker and Metal Data'!$F$2:$F$20,0),4)</f>
+        <v>279.26</v>
+      </c>
+      <c r="K4">
+        <f>INDEX('[1]Linker and Metal Data'!$F$2:$J$20,MATCH([1]Water!B18,'[1]Linker and Metal Data'!$F$2:$F$20,0),5)</f>
+        <v>6</v>
+      </c>
+      <c r="L4">
+        <v>1850</v>
+      </c>
+      <c r="M4">
         <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0.7</v>
-      </c>
-      <c r="H4">
-        <v>0.87037037037037024</v>
-      </c>
-      <c r="I4">
-        <v>0.5</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>6</v>
-      </c>
-      <c r="L4">
-        <v>0.51290322580645165</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.26597222222222222</v>
+        <f>INDEX('[1]Linker and Metal Data'!$F$2:$H$20, MATCH([1]Water!B5,'[1]Linker and Metal Data'!$F$2:$F$20,0),3)</f>
+        <v>13.92</v>
       </c>
       <c r="G5">
-        <v>0.4</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
+        <f>INDEX('[1]Linker and Metal Data'!$A$2:$D$14, MATCH([1]Water!C5,'[1]Linker and Metal Data'!$A$2:$A$14,0),4)</f>
+        <v>6</v>
+      </c>
+      <c r="H5" s="1">
+        <f>INDEX('[1]Linker and Metal Data'!$A$2:$D$14, MATCH([1]Water!C5,'[1]Linker and Metal Data'!$A$2:$A$14,0),2)</f>
+        <v>1.83</v>
       </c>
       <c r="I5">
-        <v>0.5</v>
-      </c>
-      <c r="J5">
-        <v>0.26597222222222222</v>
+        <f>INDEX('[1]Linker and Metal Data'!$A$2:$D$14, MATCH([1]Water!C5,'[1]Linker and Metal Data'!$A$2:$A$14,0),3)</f>
+        <v>2</v>
+      </c>
+      <c r="J5" s="1">
+        <f>INDEX('[1]Linker and Metal Data'!$F$2:$I$20,MATCH([1]Water!B5,'[1]Linker and Metal Data'!$F$2:$F$20,0),4)</f>
+        <v>82.1</v>
       </c>
       <c r="K5">
-        <v>6</v>
+        <f>INDEX('[1]Linker and Metal Data'!$F$2:$J$20,MATCH([1]Water!B5,'[1]Linker and Metal Data'!$F$2:$F$20,0),5)</f>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.64838709677419359</v>
+        <v>1330</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -828,81 +1705,91 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>0.6</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="F6">
-        <v>0.31944444444444442</v>
+        <f>INDEX('[1]Linker and Metal Data'!$F$2:$H$20, MATCH([1]Water!B17,'[1]Linker and Metal Data'!$F$2:$F$20,0),3)</f>
+        <v>4.1500000000000004</v>
       </c>
       <c r="G6">
-        <v>0.5</v>
-      </c>
-      <c r="H6">
-        <v>0.71759259259259256</v>
+        <f>INDEX('[1]Linker and Metal Data'!$A$2:$D$14, MATCH([1]Water!C17,'[1]Linker and Metal Data'!$A$2:$A$14,0),4)</f>
+        <v>7</v>
+      </c>
+      <c r="H6" s="1">
+        <f>INDEX('[1]Linker and Metal Data'!$A$2:$D$14, MATCH([1]Water!C17,'[1]Linker and Metal Data'!$A$2:$A$14,0),2)</f>
+        <v>1.88</v>
       </c>
       <c r="I6">
-        <v>0.5</v>
-      </c>
-      <c r="J6">
-        <v>0.31944444444444442</v>
+        <f>INDEX('[1]Linker and Metal Data'!$A$2:$D$14, MATCH([1]Water!C17,'[1]Linker and Metal Data'!$A$2:$A$14,0),3)</f>
+        <v>2</v>
+      </c>
+      <c r="J6" s="1">
+        <f>INDEX('[1]Linker and Metal Data'!$F$2:$I$20,MATCH([1]Water!B17,'[1]Linker and Metal Data'!$F$2:$F$20,0),4)</f>
+        <v>166.13</v>
       </c>
       <c r="K6">
-        <v>6</v>
+        <f>INDEX('[1]Linker and Metal Data'!$F$2:$J$20,MATCH([1]Water!B17,'[1]Linker and Metal Data'!$F$2:$F$20,0),5)</f>
+        <v>4</v>
       </c>
       <c r="L6">
-        <v>0.77419354838709675</v>
+        <v>1500</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="E7">
-        <v>0.8</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>9.5</v>
       </c>
       <c r="G7">
-        <v>0.9</v>
-      </c>
-      <c r="H7">
-        <v>0.87962962962962954</v>
+        <f>INDEX('[1]Linker and Metal Data'!$A$2:$D$14, MATCH([1]Water!C41,'[1]Linker and Metal Data'!$A$2:$A$14,0),4)</f>
+        <v>10</v>
+      </c>
+      <c r="H7" s="1">
+        <f>INDEX('[1]Linker and Metal Data'!$A$2:$D$14, MATCH([1]Water!C41,'[1]Linker and Metal Data'!$A$2:$A$14,0),2)</f>
+        <v>1.65</v>
       </c>
       <c r="I7">
-        <v>0.5</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="J7" s="1">
+        <v>136.97</v>
       </c>
       <c r="K7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.6967741935483871</v>
+        <v>1700</v>
       </c>
       <c r="M7">
         <v>2</v>
@@ -910,40 +1797,47 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D8" t="s">
         <v>27</v>
       </c>
       <c r="E8">
-        <v>0.2</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0.53749999999999998</v>
+        <f>INDEX('[1]Linker and Metal Data'!$F$2:$H$20, MATCH([1]Water!B26,'[1]Linker and Metal Data'!$F$2:$F$20,0),3)</f>
+        <v>13.8</v>
       </c>
       <c r="G8">
-        <v>0.7</v>
-      </c>
-      <c r="H8">
-        <v>0.87037037037037024</v>
+        <f>INDEX('[1]Linker and Metal Data'!$A$2:$D$14, MATCH([1]Water!C26,'[1]Linker and Metal Data'!$A$2:$A$14,0),4)</f>
+        <v>10</v>
+      </c>
+      <c r="H8" s="1">
+        <f>INDEX('[1]Linker and Metal Data'!$A$2:$D$14, MATCH([1]Water!C26,'[1]Linker and Metal Data'!$A$2:$A$14,0),2)</f>
+        <v>1.65</v>
       </c>
       <c r="I8">
-        <v>0.5</v>
-      </c>
-      <c r="J8">
-        <v>0.53749999999999998</v>
+        <f>INDEX('[1]Linker and Metal Data'!$A$2:$D$14, MATCH([1]Water!C26,'[1]Linker and Metal Data'!$A$2:$A$14,0),3)</f>
+        <v>2</v>
+      </c>
+      <c r="J8" s="1">
+        <f>INDEX('[1]Linker and Metal Data'!$F$2:$I$20,MATCH([1]Water!B26,'[1]Linker and Metal Data'!$F$2:$F$20,0),4)</f>
+        <v>96.1</v>
       </c>
       <c r="K8">
+        <f>INDEX('[1]Linker and Metal Data'!$F$2:$J$20,MATCH([1]Water!B26,'[1]Linker and Metal Data'!$F$2:$F$20,0),5)</f>
         <v>2</v>
       </c>
       <c r="L8">
-        <v>0.67419354838709677</v>
+        <v>700</v>
       </c>
       <c r="M8">
         <v>2</v>
@@ -951,297 +1845,345 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F9">
-        <v>0.26597222222222222</v>
+        <f>INDEX('[1]Linker and Metal Data'!$F$2:$H$20, MATCH([1]Water!B30,'[1]Linker and Metal Data'!$F$2:$F$20,0),3)</f>
+        <v>13.92</v>
       </c>
       <c r="G9">
-        <v>0.9</v>
-      </c>
-      <c r="H9">
-        <v>0.87962962962962954</v>
+        <f>INDEX('[1]Linker and Metal Data'!$A$2:$D$14, MATCH([1]Water!C30,'[1]Linker and Metal Data'!$A$2:$A$14,0),4)</f>
+        <v>10</v>
+      </c>
+      <c r="H9" s="1">
+        <f>INDEX('[1]Linker and Metal Data'!$A$2:$D$14, MATCH([1]Water!C30,'[1]Linker and Metal Data'!$A$2:$A$14,0),2)</f>
+        <v>1.65</v>
       </c>
       <c r="I9">
-        <v>0.5</v>
-      </c>
-      <c r="J9">
-        <v>0.26597222222222222</v>
+        <f>INDEX('[1]Linker and Metal Data'!$A$2:$D$14, MATCH([1]Water!C30,'[1]Linker and Metal Data'!$A$2:$A$14,0),3)</f>
+        <v>2</v>
+      </c>
+      <c r="J9" s="1">
+        <f>INDEX('[1]Linker and Metal Data'!$F$2:$I$20,MATCH([1]Water!B30,'[1]Linker and Metal Data'!$F$2:$F$20,0),4)</f>
+        <v>82.1</v>
       </c>
       <c r="K9">
-        <v>6</v>
+        <f>INDEX('[1]Linker and Metal Data'!$F$2:$J$20,MATCH([1]Water!B30,'[1]Linker and Metal Data'!$F$2:$F$20,0),5)</f>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.5741935483870968</v>
+        <v>1947</v>
       </c>
       <c r="M9">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10">
-        <v>0.2</v>
-      </c>
       <c r="F10">
-        <v>0.64652777777777781</v>
+        <f>INDEX('[1]Linker and Metal Data'!$F$2:$H$20, MATCH([1]Water!B38,'[1]Linker and Metal Data'!$F$2:$F$20,0),3)</f>
+        <v>4.2</v>
       </c>
       <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>0.76388888888888884</v>
+        <f>INDEX('[1]Linker and Metal Data'!$A$2:$D$14, MATCH([1]Water!C38,'[1]Linker and Metal Data'!$A$2:$A$14,0),4)</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <f>INDEX('[1]Linker and Metal Data'!$A$2:$D$14, MATCH([1]Water!C38,'[1]Linker and Metal Data'!$A$2:$A$14,0),2)</f>
+        <v>1.33</v>
       </c>
       <c r="I10">
-        <v>0.5</v>
-      </c>
-      <c r="J10">
-        <v>0.64652777777777781</v>
+        <v>4</v>
+      </c>
+      <c r="J10" s="1">
+        <f>INDEX('[1]Linker and Metal Data'!$F$2:$I$20,MATCH([1]Water!B38,'[1]Linker and Metal Data'!$F$2:$F$20,0),4)</f>
+        <v>216.19</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <f>INDEX('[1]Linker and Metal Data'!$F$2:$J$20,MATCH([1]Water!B38,'[1]Linker and Metal Data'!$F$2:$F$20,0),5)</f>
+        <v>4</v>
       </c>
       <c r="L10">
-        <v>0.25806451612903225</v>
+        <v>460</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11">
-        <v>0.2</v>
-      </c>
       <c r="F11">
-        <v>0.85069444444444442</v>
+        <f>INDEX('[1]Linker and Metal Data'!$F$2:$H$20, MATCH([1]Water!B29,'[1]Linker and Metal Data'!$F$2:$F$20,0),3)</f>
+        <v>4</v>
       </c>
       <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>0.76388888888888884</v>
+        <f>INDEX('[1]Linker and Metal Data'!$A$2:$D$14, MATCH([1]Water!C29,'[1]Linker and Metal Data'!$A$2:$A$14,0),4)</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <f>INDEX('[1]Linker and Metal Data'!$A$2:$D$14, MATCH([1]Water!C29,'[1]Linker and Metal Data'!$A$2:$A$14,0),2)</f>
+        <v>1.33</v>
       </c>
       <c r="I11">
-        <v>0.5</v>
-      </c>
-      <c r="J11">
-        <v>0.85069444444444442</v>
+        <f>INDEX('[1]Linker and Metal Data'!$A$2:$D$14, MATCH([1]Water!C29,'[1]Linker and Metal Data'!$A$2:$A$14,0),3)</f>
+        <v>4</v>
+      </c>
+      <c r="J11" s="1">
+        <f>INDEX('[1]Linker and Metal Data'!$F$2:$I$20,MATCH([1]Water!B29,'[1]Linker and Metal Data'!$F$2:$F$20,0),4)</f>
+        <v>166.13</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <f>INDEX('[1]Linker and Metal Data'!$F$2:$J$20,MATCH([1]Water!B29,'[1]Linker and Metal Data'!$F$2:$F$20,0),5)</f>
+        <v>4</v>
       </c>
       <c r="L11">
-        <v>0.11451612903225807</v>
+        <v>1150</v>
       </c>
       <c r="M11">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
         <v>26</v>
       </c>
       <c r="E12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F12">
+        <f>INDEX('[1]Linker and Metal Data'!$F$2:$H$20, MATCH([1]Water!B12,'[1]Linker and Metal Data'!$F$2:$F$20,0),3)</f>
+        <v>3.83</v>
+      </c>
+      <c r="G12">
+        <f>INDEX('[1]Linker and Metal Data'!$A$2:$D$14, MATCH([1]Water!C12,'[1]Linker and Metal Data'!$A$2:$A$14,0),4)</f>
+        <v>9</v>
+      </c>
+      <c r="H12" s="1">
+        <f>INDEX('[1]Linker and Metal Data'!$A$2:$D$14, MATCH([1]Water!C12,'[1]Linker and Metal Data'!$A$2:$A$14,0),2)</f>
+        <v>1.9</v>
+      </c>
+      <c r="I12">
+        <f>INDEX('[1]Linker and Metal Data'!$A$2:$D$14, MATCH([1]Water!C12,'[1]Linker and Metal Data'!$A$2:$A$14,0),3)</f>
+        <v>2</v>
+      </c>
+      <c r="J12" s="1">
+        <f>INDEX('[1]Linker and Metal Data'!$F$2:$I$20,MATCH([1]Water!B12,'[1]Linker and Metal Data'!$F$2:$F$20,0),4)</f>
+        <v>210.14</v>
+      </c>
+      <c r="K12">
+        <f>INDEX('[1]Linker and Metal Data'!$F$2:$J$20,MATCH([1]Water!B12,'[1]Linker and Metal Data'!$F$2:$F$20,0),5)</f>
+        <v>6</v>
+      </c>
+      <c r="L12">
+        <v>1780</v>
+      </c>
+      <c r="M12">
         <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.27777777777777779</v>
-      </c>
-      <c r="G12">
-        <v>0.6</v>
-      </c>
-      <c r="H12">
-        <v>0.84722222222222221</v>
-      </c>
-      <c r="I12">
-        <v>0.75</v>
-      </c>
-      <c r="J12">
-        <v>0.27777777777777779</v>
-      </c>
-      <c r="K12">
-        <v>4</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="E13">
-        <v>0.8</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="F13">
+        <f>INDEX('[1]Linker and Metal Data'!$F$2:$H$20, MATCH([1]Water!B14,'[1]Linker and Metal Data'!$F$2:$F$20,0),3)</f>
+        <v>12.25</v>
+      </c>
+      <c r="G13">
+        <f>INDEX('[1]Linker and Metal Data'!$A$2:$D$14, MATCH([1]Water!C14,'[1]Linker and Metal Data'!$A$2:$A$14,0),4)</f>
+        <v>10</v>
+      </c>
+      <c r="H13" s="1">
+        <f>INDEX('[1]Linker and Metal Data'!$A$2:$D$14, MATCH([1]Water!C14,'[1]Linker and Metal Data'!$A$2:$A$14,0),2)</f>
+        <v>1.65</v>
+      </c>
+      <c r="I13">
+        <f>INDEX('[1]Linker and Metal Data'!$A$2:$D$14, MATCH([1]Water!C14,'[1]Linker and Metal Data'!$A$2:$A$14,0),3)</f>
+        <v>2</v>
+      </c>
+      <c r="J13" s="1">
+        <f>INDEX('[1]Linker and Metal Data'!$F$2:$I$20,MATCH([1]Water!B14,'[1]Linker and Metal Data'!$F$2:$F$20,0),4)</f>
+        <v>118.14</v>
+      </c>
+      <c r="K13">
+        <f>INDEX('[1]Linker and Metal Data'!$F$2:$J$20,MATCH([1]Water!B14,'[1]Linker and Metal Data'!$F$2:$F$20,0),5)</f>
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>355</v>
+      </c>
+      <c r="M13">
         <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>0.76388888888888884</v>
-      </c>
-      <c r="I13">
-        <v>0.5</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="K13">
-        <v>6</v>
-      </c>
-      <c r="L13">
-        <v>0.4</v>
-      </c>
-      <c r="M13">
-        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D14" t="s">
         <v>26</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="F14">
-        <v>0.27777777777777779</v>
+        <f>INDEX('[1]Linker and Metal Data'!$F$2:$H$20, MATCH([1]Water!B3,'[1]Linker and Metal Data'!$F$2:$F$20,0),3)</f>
+        <v>3.83</v>
       </c>
       <c r="G14">
-        <v>0.3</v>
-      </c>
-      <c r="H14">
-        <v>0.76851851851851838</v>
+        <f>INDEX('[1]Linker and Metal Data'!$A$2:$D$14, MATCH([1]Water!C3,'[1]Linker and Metal Data'!$A$2:$A$14,0),4)</f>
+        <v>4</v>
+      </c>
+      <c r="H14" s="1">
+        <f>INDEX('[1]Linker and Metal Data'!$A$2:$D$14, MATCH([1]Water!C3,'[1]Linker and Metal Data'!$A$2:$A$14,0),2)</f>
+        <v>2.16</v>
       </c>
       <c r="I14">
-        <v>0.75</v>
-      </c>
-      <c r="J14">
-        <v>0.27777777777777779</v>
+        <f>INDEX('[1]Linker and Metal Data'!$A$2:$D$14, MATCH([1]Water!C3,'[1]Linker and Metal Data'!$A$2:$A$14,0),3)</f>
+        <v>2</v>
+      </c>
+      <c r="J14" s="1">
+        <f>INDEX('[1]Linker and Metal Data'!$F$2:$I$20,MATCH([1]Water!B3,'[1]Linker and Metal Data'!$F$2:$F$20,0),4)</f>
+        <v>210.14</v>
       </c>
       <c r="K14">
-        <v>4</v>
+        <f>INDEX('[1]Linker and Metal Data'!$F$2:$J$20,MATCH([1]Water!B3,'[1]Linker and Metal Data'!$F$2:$F$20,0),5)</f>
+        <v>6</v>
       </c>
       <c r="L14">
-        <v>0.4838709677419355</v>
+        <v>2010</v>
       </c>
       <c r="M14">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="F15">
-        <v>0.27777777777777779</v>
+        <f>INDEX('[1]Linker and Metal Data'!$F$2:$H$20, MATCH([1]Water!B23,'[1]Linker and Metal Data'!$F$2:$F$20,0),3)</f>
+        <v>14.4</v>
       </c>
       <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0.6157407407407407</v>
+        <f>INDEX('[1]Linker and Metal Data'!$A$2:$D$14, MATCH([1]Water!C23,'[1]Linker and Metal Data'!$A$2:$A$14,0),4)</f>
+        <v>10</v>
+      </c>
+      <c r="H15" s="1">
+        <f>INDEX('[1]Linker and Metal Data'!$A$2:$D$14, MATCH([1]Water!C23,'[1]Linker and Metal Data'!$A$2:$A$14,0),2)</f>
+        <v>1.65</v>
       </c>
       <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="J15">
-        <v>0.27777777777777779</v>
+        <f>INDEX('[1]Linker and Metal Data'!$A$2:$D$14, MATCH([1]Water!C23,'[1]Linker and Metal Data'!$A$2:$A$14,0),3)</f>
+        <v>2</v>
+      </c>
+      <c r="J15" s="1" t="str">
+        <f>INDEX('[1]Linker and Metal Data'!$F$2:$I$20,MATCH([1]Water!B23,'[1]Linker and Metal Data'!$F$2:$F$20,0),4)</f>
+        <v>276.3 </v>
       </c>
       <c r="K15">
-        <v>4</v>
+        <f>INDEX('[1]Linker and Metal Data'!$F$2:$J$20,MATCH([1]Water!B23,'[1]Linker and Metal Data'!$F$2:$F$20,0),5)</f>
+        <v>6</v>
       </c>
       <c r="L15">
-        <v>0.37096774193548387</v>
+        <v>1240</v>
       </c>
       <c r="M15">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -1250,192 +2192,226 @@
         <v>27</v>
       </c>
       <c r="E16">
-        <v>0.2</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.96666666666666667</v>
+        <f>INDEX('[1]Linker and Metal Data'!$F$2:$H$20, MATCH([1]Water!B13,'[1]Linker and Metal Data'!$F$2:$F$20,0),3)</f>
+        <v>9.31</v>
       </c>
       <c r="G16">
+        <f>INDEX('[1]Linker and Metal Data'!$A$2:$D$14, MATCH([1]Water!C13,'[1]Linker and Metal Data'!$A$2:$A$14,0),4)</f>
+        <v>10</v>
+      </c>
+      <c r="H16" s="1">
+        <f>INDEX('[1]Linker and Metal Data'!$A$2:$D$14, MATCH([1]Water!C13,'[1]Linker and Metal Data'!$A$2:$A$14,0),2)</f>
+        <v>1.65</v>
+      </c>
+      <c r="I16">
+        <f>INDEX('[1]Linker and Metal Data'!$A$2:$D$14, MATCH([1]Water!C13,'[1]Linker and Metal Data'!$A$2:$A$14,0),3)</f>
+        <v>2</v>
+      </c>
+      <c r="J16" s="1">
+        <f>INDEX('[1]Linker and Metal Data'!$F$2:$I$20,MATCH([1]Water!B13,'[1]Linker and Metal Data'!$F$2:$F$20,0),4)</f>
+        <v>120.11</v>
+      </c>
+      <c r="K16">
+        <f>INDEX('[1]Linker and Metal Data'!$F$2:$J$20,MATCH([1]Water!B13,'[1]Linker and Metal Data'!$F$2:$F$20,0),5)</f>
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>800</v>
+      </c>
+      <c r="M16">
         <v>1</v>
-      </c>
-      <c r="H16">
-        <v>0.76388888888888884</v>
-      </c>
-      <c r="I16">
-        <v>0.5</v>
-      </c>
-      <c r="J16">
-        <v>0.96666666666666667</v>
-      </c>
-      <c r="K16">
-        <v>2</v>
-      </c>
-      <c r="L16">
-        <v>0.62806451612903225</v>
-      </c>
-      <c r="M16">
-        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E17">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F17">
-        <v>0.26597222222222222</v>
+        <f>INDEX('[1]Linker and Metal Data'!$F$2:$H$20, MATCH([1]Water!B8,'[1]Linker and Metal Data'!$F$2:$F$20,0),3)</f>
+        <v>13.5</v>
       </c>
       <c r="G17">
+        <f>INDEX('[1]Linker and Metal Data'!$A$2:$D$14, MATCH([1]Water!C8,'[1]Linker and Metal Data'!$A$2:$A$14,0),4)</f>
         <v>0</v>
       </c>
-      <c r="H17">
-        <v>0.74537037037037035</v>
+      <c r="H17" s="1">
+        <f>INDEX('[1]Linker and Metal Data'!$A$2:$D$14, MATCH([1]Water!C8,'[1]Linker and Metal Data'!$A$2:$A$14,0),2)</f>
+        <v>1.31</v>
       </c>
       <c r="I17">
-        <v>0.75</v>
-      </c>
-      <c r="J17">
-        <v>0.26597222222222222</v>
+        <f>INDEX('[1]Linker and Metal Data'!$A$2:$D$14, MATCH([1]Water!C8,'[1]Linker and Metal Data'!$A$2:$A$14,0),3)</f>
+        <v>2</v>
+      </c>
+      <c r="J17" s="1">
+        <f>INDEX('[1]Linker and Metal Data'!$F$2:$I$20,MATCH([1]Water!B8,'[1]Linker and Metal Data'!$F$2:$F$20,0),4)</f>
+        <v>68.08</v>
       </c>
       <c r="K17">
-        <v>6</v>
+        <f>INDEX('[1]Linker and Metal Data'!$F$2:$J$20,MATCH([1]Water!B8,'[1]Linker and Metal Data'!$F$2:$F$20,0),5)</f>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>0.80645161290322576</v>
+        <v>2500</v>
       </c>
       <c r="M17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="D18" t="s">
         <v>26</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="F18">
-        <v>0.26597222222222222</v>
+        <f>INDEX('[1]Linker and Metal Data'!$F$2:$H$20, MATCH([1]Water!B39,'[1]Linker and Metal Data'!$F$2:$F$20,0),3)</f>
+        <v>4.2</v>
       </c>
       <c r="G18">
-        <v>0.5</v>
-      </c>
-      <c r="H18">
-        <v>0.84722222222222221</v>
+        <f>INDEX('[1]Linker and Metal Data'!$A$2:$D$14, MATCH([1]Water!C39,'[1]Linker and Metal Data'!$A$2:$A$14,0),4)</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <f>INDEX('[1]Linker and Metal Data'!$A$2:$D$14, MATCH([1]Water!C39,'[1]Linker and Metal Data'!$A$2:$A$14,0),2)</f>
+        <v>1.33</v>
       </c>
       <c r="I18">
-        <v>0.75</v>
-      </c>
-      <c r="J18">
-        <v>0.26597222222222222</v>
+        <v>4</v>
+      </c>
+      <c r="J18" s="1">
+        <f>INDEX('[1]Linker and Metal Data'!$F$2:$I$20,MATCH([1]Water!B39,'[1]Linker and Metal Data'!$F$2:$F$20,0),4)</f>
+        <v>242.23</v>
       </c>
       <c r="K18">
-        <v>6</v>
+        <f>INDEX('[1]Linker and Metal Data'!$F$2:$J$20,MATCH([1]Water!B39,'[1]Linker and Metal Data'!$F$2:$F$20,0),5)</f>
+        <v>4</v>
       </c>
       <c r="L18">
-        <v>0.91290322580645167</v>
+        <v>670</v>
       </c>
       <c r="M18">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D19" t="s">
         <v>27</v>
       </c>
       <c r="E19">
-        <v>0.2</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>0.96666666666666667</v>
+        <f>INDEX('[1]Linker and Metal Data'!$F$2:$H$20, MATCH([1]Water!B19,'[1]Linker and Metal Data'!$F$2:$F$20,0),3)</f>
+        <v>12.25</v>
       </c>
       <c r="G19">
-        <v>0.7</v>
-      </c>
-      <c r="H19">
-        <v>0.87037037037037024</v>
+        <f>INDEX('[1]Linker and Metal Data'!$A$2:$D$14, MATCH([1]Water!C19,'[1]Linker and Metal Data'!$A$2:$A$14,0),4)</f>
+        <v>10</v>
+      </c>
+      <c r="H19" s="1">
+        <f>INDEX('[1]Linker and Metal Data'!$A$2:$D$14, MATCH([1]Water!C19,'[1]Linker and Metal Data'!$A$2:$A$14,0),2)</f>
+        <v>1.65</v>
       </c>
       <c r="I19">
-        <v>0.5</v>
-      </c>
-      <c r="J19">
-        <v>0.96666666666666667</v>
+        <f>INDEX('[1]Linker and Metal Data'!$A$2:$D$14, MATCH([1]Water!C19,'[1]Linker and Metal Data'!$A$2:$A$14,0),3)</f>
+        <v>2</v>
+      </c>
+      <c r="J19" s="1">
+        <f>INDEX('[1]Linker and Metal Data'!$F$2:$I$20,MATCH([1]Water!B19,'[1]Linker and Metal Data'!$F$2:$F$20,0),4)</f>
+        <v>118.14</v>
       </c>
       <c r="K19">
+        <f>INDEX('[1]Linker and Metal Data'!$F$2:$J$20,MATCH([1]Water!B19,'[1]Linker and Metal Data'!$F$2:$F$20,0),5)</f>
         <v>2</v>
       </c>
       <c r="L19">
-        <v>0.64193548387096777</v>
+        <v>1676</v>
       </c>
       <c r="M19">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B20" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D20" t="s">
         <v>27</v>
       </c>
       <c r="E20">
-        <v>0.2</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>0.96666666666666667</v>
+        <f>INDEX('[1]Linker and Metal Data'!$F$2:$H$20, MATCH([1]Water!B10,'[1]Linker and Metal Data'!$F$2:$F$20,0),3)</f>
+        <v>7.74</v>
       </c>
       <c r="G20">
-        <v>0.6</v>
-      </c>
-      <c r="H20">
-        <v>0.84722222222222221</v>
+        <f>INDEX('[1]Linker and Metal Data'!$A$2:$D$14, MATCH([1]Water!C10,'[1]Linker and Metal Data'!$A$2:$A$14,0),4)</f>
+        <v>7</v>
+      </c>
+      <c r="H20" s="1">
+        <f>INDEX('[1]Linker and Metal Data'!$A$2:$D$14, MATCH([1]Water!C10,'[1]Linker and Metal Data'!$A$2:$A$14,0),2)</f>
+        <v>1.88</v>
       </c>
       <c r="I20">
-        <v>0.5</v>
-      </c>
-      <c r="J20">
-        <v>0.96666666666666667</v>
+        <f>INDEX('[1]Linker and Metal Data'!$A$2:$D$14, MATCH([1]Water!C10,'[1]Linker and Metal Data'!$A$2:$A$14,0),3)</f>
+        <v>2</v>
+      </c>
+      <c r="J20" s="1">
+        <f>INDEX('[1]Linker and Metal Data'!$F$2:$I$20,MATCH([1]Water!B10,'[1]Linker and Metal Data'!$F$2:$F$20,0),4)</f>
+        <v>113.07</v>
       </c>
       <c r="K20">
+        <f>INDEX('[1]Linker and Metal Data'!$F$2:$J$20,MATCH([1]Water!B10,'[1]Linker and Metal Data'!$F$2:$F$20,0),5)</f>
         <v>2</v>
       </c>
       <c r="L20">
-        <v>0.42903225806451611</v>
+        <v>1240</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1443,40 +2419,47 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D21" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="E21">
-        <v>0.4</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="F21">
-        <v>0.64583333333333337</v>
+        <f>INDEX('[1]Linker and Metal Data'!$F$2:$H$20, MATCH([1]Water!B28,'[1]Linker and Metal Data'!$F$2:$F$20,0),3)</f>
+        <v>4</v>
       </c>
       <c r="G21">
-        <v>0.9</v>
-      </c>
-      <c r="H21">
-        <v>0.87962962962962954</v>
+        <f>INDEX('[1]Linker and Metal Data'!$A$2:$D$14, MATCH([1]Water!C28,'[1]Linker and Metal Data'!$A$2:$A$14,0),4)</f>
+        <v>3</v>
+      </c>
+      <c r="H21" s="1">
+        <f>INDEX('[1]Linker and Metal Data'!$A$2:$D$14, MATCH([1]Water!C28,'[1]Linker and Metal Data'!$A$2:$A$14,0),2)</f>
+        <v>1.66</v>
       </c>
       <c r="I21">
-        <v>0.5</v>
-      </c>
-      <c r="J21">
-        <v>0.64583333333333337</v>
+        <f>INDEX('[1]Linker and Metal Data'!$A$2:$D$14, MATCH([1]Water!C28,'[1]Linker and Metal Data'!$A$2:$A$14,0),3)</f>
+        <v>3</v>
+      </c>
+      <c r="J21" s="1">
+        <f>INDEX('[1]Linker and Metal Data'!$F$2:$I$20,MATCH([1]Water!B28,'[1]Linker and Metal Data'!$F$2:$F$20,0),4)</f>
+        <v>166.13</v>
       </c>
       <c r="K21">
-        <v>6</v>
+        <f>INDEX('[1]Linker and Metal Data'!$F$2:$J$20,MATCH([1]Water!B28,'[1]Linker and Metal Data'!$F$2:$F$20,0),5)</f>
+        <v>4</v>
       </c>
       <c r="L21">
-        <v>0.61290322580645162</v>
+        <v>1500</v>
       </c>
       <c r="M21">
         <v>3</v>
@@ -1484,286 +2467,332 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
         <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D22" t="s">
         <v>26</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="F22">
-        <v>0.26597222222222222</v>
+        <f>INDEX('[1]Linker and Metal Data'!$F$2:$H$20, MATCH([1]Water!B34,'[1]Linker and Metal Data'!$F$2:$F$20,0),3)</f>
+        <v>3.83</v>
       </c>
       <c r="G22">
-        <v>0.8</v>
-      </c>
-      <c r="H22">
-        <v>0.88425925925925919</v>
+        <f>INDEX('[1]Linker and Metal Data'!$A$2:$D$14, MATCH([1]Water!C34,'[1]Linker and Metal Data'!$A$2:$A$14,0),4)</f>
+        <v>3</v>
+      </c>
+      <c r="H22" s="1">
+        <f>INDEX('[1]Linker and Metal Data'!$A$2:$D$14, MATCH([1]Water!C34,'[1]Linker and Metal Data'!$A$2:$A$14,0),2)</f>
+        <v>1.66</v>
       </c>
       <c r="I22">
-        <v>0.5</v>
-      </c>
-      <c r="J22">
-        <v>0.26597222222222222</v>
+        <v>3</v>
+      </c>
+      <c r="J22" s="1">
+        <f>INDEX('[1]Linker and Metal Data'!$F$2:$I$20,MATCH([1]Water!B34,'[1]Linker and Metal Data'!$F$2:$F$20,0),4)</f>
+        <v>210.14</v>
       </c>
       <c r="K22">
+        <f>INDEX('[1]Linker and Metal Data'!$F$2:$J$20,MATCH([1]Water!B34,'[1]Linker and Metal Data'!$F$2:$F$20,0),5)</f>
         <v>6</v>
       </c>
       <c r="L22">
-        <v>0.35161290322580646</v>
+        <v>3100</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D23" t="s">
         <v>26</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="F23">
-        <v>0.27777777777777779</v>
+        <f>INDEX('[1]Linker and Metal Data'!$F$2:$H$20, MATCH([1]Water!B24,'[1]Linker and Metal Data'!$F$2:$F$20,0),3)</f>
+        <v>3.83</v>
       </c>
       <c r="G23">
-        <v>0.1</v>
-      </c>
-      <c r="H23">
-        <v>0.75462962962962954</v>
+        <f>INDEX('[1]Linker and Metal Data'!$A$2:$D$14, MATCH([1]Water!C24,'[1]Linker and Metal Data'!$A$2:$A$14,0),4)</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <f>INDEX('[1]Linker and Metal Data'!$A$2:$D$14, MATCH([1]Water!C24,'[1]Linker and Metal Data'!$A$2:$A$14,0),2)</f>
+        <v>1.61</v>
       </c>
       <c r="I23">
-        <v>1</v>
-      </c>
-      <c r="J23">
-        <v>0.27777777777777779</v>
+        <f>INDEX('[1]Linker and Metal Data'!$A$2:$D$14, MATCH([1]Water!C24,'[1]Linker and Metal Data'!$A$2:$A$14,0),3)</f>
+        <v>3</v>
+      </c>
+      <c r="J23" s="1">
+        <f>INDEX('[1]Linker and Metal Data'!$F$2:$I$20,MATCH([1]Water!B24,'[1]Linker and Metal Data'!$F$2:$F$20,0),4)</f>
+        <v>210.14</v>
       </c>
       <c r="K23">
-        <v>4</v>
+        <f>INDEX('[1]Linker and Metal Data'!$F$2:$J$20,MATCH([1]Water!B24,'[1]Linker and Metal Data'!$F$2:$F$20,0),5)</f>
+        <v>6</v>
       </c>
       <c r="L23">
-        <v>0.37096774193548387</v>
+        <v>2500</v>
       </c>
       <c r="M23">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D24" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="E24">
-        <v>0.8</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="F24">
+        <f>INDEX('[1]Linker and Metal Data'!$F$2:$H$20, MATCH([1]Water!B11,'[1]Linker and Metal Data'!$F$2:$F$20,0),3)</f>
+        <v>4</v>
+      </c>
+      <c r="G24">
+        <f>INDEX('[1]Linker and Metal Data'!$A$2:$D$14, MATCH([1]Water!C11,'[1]Linker and Metal Data'!$A$2:$A$14,0),4)</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <f>INDEX('[1]Linker and Metal Data'!$A$2:$D$14, MATCH([1]Water!C11,'[1]Linker and Metal Data'!$A$2:$A$14,0),2)</f>
+        <v>1.61</v>
+      </c>
+      <c r="I24">
+        <f>INDEX('[1]Linker and Metal Data'!$A$2:$D$14, MATCH([1]Water!C11,'[1]Linker and Metal Data'!$A$2:$A$14,0),3)</f>
+        <v>3</v>
+      </c>
+      <c r="J24" s="1">
+        <f>INDEX('[1]Linker and Metal Data'!$F$2:$I$20,MATCH([1]Water!B11,'[1]Linker and Metal Data'!$F$2:$F$20,0),4)</f>
+        <v>166.13</v>
+      </c>
+      <c r="K24">
+        <f>INDEX('[1]Linker and Metal Data'!$F$2:$J$20,MATCH([1]Water!B11,'[1]Linker and Metal Data'!$F$2:$F$20,0),5)</f>
+        <v>4</v>
+      </c>
+      <c r="L24">
+        <v>1270</v>
+      </c>
+      <c r="M24">
         <v>1</v>
-      </c>
-      <c r="G24">
-        <v>0.8</v>
-      </c>
-      <c r="H24">
-        <v>0.88425925925925919</v>
-      </c>
-      <c r="I24">
-        <v>0.5</v>
-      </c>
-      <c r="J24">
-        <v>1</v>
-      </c>
-      <c r="K24">
-        <v>6</v>
-      </c>
-      <c r="L24">
-        <v>0.61290322580645162</v>
-      </c>
-      <c r="M24">
-        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="B25" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C25" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E25">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F25">
-        <v>0.27777777777777779</v>
+        <f>INDEX('[1]Linker and Metal Data'!$F$2:$H$20, MATCH([1]Water!B21,'[1]Linker and Metal Data'!$F$2:$F$20,0),3)</f>
+        <v>7.74</v>
       </c>
       <c r="G25">
-        <v>1</v>
-      </c>
-      <c r="H25">
-        <v>0.76388888888888884</v>
+        <f>INDEX('[1]Linker and Metal Data'!$A$2:$D$14, MATCH([1]Water!C21,'[1]Linker and Metal Data'!$A$2:$A$14,0),4)</f>
+        <v>7</v>
+      </c>
+      <c r="H25" s="1">
+        <f>INDEX('[1]Linker and Metal Data'!$A$2:$D$14, MATCH([1]Water!C21,'[1]Linker and Metal Data'!$A$2:$A$14,0),2)</f>
+        <v>1.88</v>
       </c>
       <c r="I25">
-        <v>0.5</v>
-      </c>
-      <c r="J25">
-        <v>0.27777777777777779</v>
+        <f>INDEX('[1]Linker and Metal Data'!$A$2:$D$14, MATCH([1]Water!C21,'[1]Linker and Metal Data'!$A$2:$A$14,0),3)</f>
+        <v>2</v>
+      </c>
+      <c r="J25" s="1">
+        <f>INDEX('[1]Linker and Metal Data'!$F$2:$I$20,MATCH([1]Water!B21,'[1]Linker and Metal Data'!$F$2:$F$20,0),4)</f>
+        <v>113.07</v>
       </c>
       <c r="K25">
-        <v>4</v>
+        <f>INDEX('[1]Linker and Metal Data'!$F$2:$J$20,MATCH([1]Water!B21,'[1]Linker and Metal Data'!$F$2:$F$20,0),5)</f>
+        <v>2</v>
       </c>
       <c r="L25">
-        <v>0.93548387096774188</v>
+        <v>2090</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="B26" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D26" t="s">
         <v>26</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="F26">
-        <v>0.28819444444444448</v>
+        <f>INDEX('[1]Linker and Metal Data'!$F$2:$H$20, MATCH([1]Water!B35,'[1]Linker and Metal Data'!$F$2:$F$20,0),3)</f>
+        <v>4.2</v>
       </c>
       <c r="G26">
-        <v>0.7</v>
-      </c>
-      <c r="H26">
-        <v>0.87037037037037024</v>
+        <f>INDEX('[1]Linker and Metal Data'!$A$2:$D$14, MATCH([1]Water!C35,'[1]Linker and Metal Data'!$A$2:$A$14,0),4)</f>
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
+        <f>INDEX('[1]Linker and Metal Data'!$A$2:$D$14, MATCH([1]Water!C35,'[1]Linker and Metal Data'!$A$2:$A$14,0),2)</f>
+        <v>1.61</v>
       </c>
       <c r="I26">
-        <v>0.5</v>
-      </c>
-      <c r="J26">
-        <v>0.28819444444444448</v>
+        <v>3</v>
+      </c>
+      <c r="J26" s="1">
+        <f>INDEX('[1]Linker and Metal Data'!$F$2:$I$20,MATCH([1]Water!B35,'[1]Linker and Metal Data'!$F$2:$F$20,0),4)</f>
+        <v>216.19</v>
       </c>
       <c r="K26">
-        <v>4</v>
-      </c>
-      <c r="L26">
-        <v>0.4838709677419355</v>
+        <f>INDEX('[1]Linker and Metal Data'!$F$2:$J$20,MATCH([1]Water!B35,'[1]Linker and Metal Data'!$F$2:$F$20,0),5)</f>
+        <v>4</v>
+      </c>
+      <c r="L26" s="1">
+        <v>2000</v>
       </c>
       <c r="M26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="C27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D27" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="E27">
-        <v>0.4</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="F27">
-        <v>0.64583333333333337</v>
+        <f>INDEX('[1]Linker and Metal Data'!$F$2:$H$20, MATCH([1]Water!B33,'[1]Linker and Metal Data'!$F$2:$F$20,0),3)</f>
+        <v>14.4</v>
       </c>
       <c r="G27">
-        <v>0.7</v>
-      </c>
-      <c r="H27">
-        <v>0.87037037037037024</v>
+        <f>INDEX('[1]Linker and Metal Data'!$A$2:$D$14, MATCH([1]Water!C33,'[1]Linker and Metal Data'!$A$2:$A$14,0),4)</f>
+        <v>8</v>
+      </c>
+      <c r="H27" s="1">
+        <f>INDEX('[1]Linker and Metal Data'!$A$2:$D$14, MATCH([1]Water!C33,'[1]Linker and Metal Data'!$A$2:$A$14,0),2)</f>
+        <v>1.91</v>
       </c>
       <c r="I27">
-        <v>0.5</v>
-      </c>
-      <c r="J27">
-        <v>0.64583333333333337</v>
+        <v>2</v>
+      </c>
+      <c r="J27" s="1" t="str">
+        <f>INDEX('[1]Linker and Metal Data'!$F$2:$I$20,MATCH([1]Water!B33,'[1]Linker and Metal Data'!$F$2:$F$20,0),4)</f>
+        <v>276.3 </v>
       </c>
       <c r="K27">
+        <f>INDEX('[1]Linker and Metal Data'!$F$2:$J$20,MATCH([1]Water!B33,'[1]Linker and Metal Data'!$F$2:$F$20,0),5)</f>
         <v>6</v>
       </c>
       <c r="L27">
-        <v>0.59677419354838712</v>
+        <v>1900</v>
       </c>
       <c r="M27">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C28" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D28" t="s">
-        <v>27</v>
-      </c>
-      <c r="E28">
-        <v>0.2</v>
-      </c>
       <c r="F28">
-        <v>0.95833333333333337</v>
+        <f>INDEX('[1]Linker and Metal Data'!$F$2:$H$20, MATCH([1]Water!B25,'[1]Linker and Metal Data'!$F$2:$F$20,0),3)</f>
+        <v>3.83</v>
       </c>
       <c r="G28">
-        <v>1</v>
-      </c>
-      <c r="H28">
-        <v>0.76388888888888884</v>
+        <f>INDEX('[1]Linker and Metal Data'!$A$2:$D$14, MATCH([1]Water!C25,'[1]Linker and Metal Data'!$A$2:$A$14,0),4)</f>
+        <v>6</v>
+      </c>
+      <c r="H28" s="1">
+        <f>INDEX('[1]Linker and Metal Data'!$A$2:$D$14, MATCH([1]Water!C25,'[1]Linker and Metal Data'!$A$2:$A$14,0),2)</f>
+        <v>1.83</v>
       </c>
       <c r="I28">
-        <v>0.5</v>
-      </c>
-      <c r="J28">
-        <v>0.95833333333333337</v>
+        <f>INDEX('[1]Linker and Metal Data'!$A$2:$D$14, MATCH([1]Water!C25,'[1]Linker and Metal Data'!$A$2:$A$14,0),3)</f>
+        <v>2</v>
+      </c>
+      <c r="J28" s="1">
+        <f>INDEX('[1]Linker and Metal Data'!$F$2:$I$20,MATCH([1]Water!B25,'[1]Linker and Metal Data'!$F$2:$F$20,0),4)</f>
+        <v>210.14</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <f>INDEX('[1]Linker and Metal Data'!$F$2:$J$20,MATCH([1]Water!B25,'[1]Linker and Metal Data'!$F$2:$F$20,0),5)</f>
+        <v>6</v>
       </c>
       <c r="L28">
-        <v>0.22580645161290322</v>
+        <v>2830</v>
       </c>
       <c r="M28">
         <v>2</v>
@@ -1771,210 +2800,628 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D29" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="E29">
-        <v>0.4</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>0.64583333333333337</v>
+        <f>INDEX('[1]Linker and Metal Data'!$F$2:$H$20, MATCH([1]Water!B15,'[1]Linker and Metal Data'!$F$2:$F$20,0),3)</f>
+        <v>13.92</v>
       </c>
       <c r="G29">
+        <f>INDEX('[1]Linker and Metal Data'!$A$2:$D$14, MATCH([1]Water!C15,'[1]Linker and Metal Data'!$A$2:$A$14,0),4)</f>
+        <v>7</v>
+      </c>
+      <c r="H29" s="1">
+        <f>INDEX('[1]Linker and Metal Data'!$A$2:$D$14, MATCH([1]Water!C15,'[1]Linker and Metal Data'!$A$2:$A$14,0),2)</f>
+        <v>1.88</v>
+      </c>
+      <c r="I29">
+        <f>INDEX('[1]Linker and Metal Data'!$A$2:$D$14, MATCH([1]Water!C15,'[1]Linker and Metal Data'!$A$2:$A$14,0),3)</f>
+        <v>2</v>
+      </c>
+      <c r="J29" s="1">
+        <f>INDEX('[1]Linker and Metal Data'!$F$2:$I$20,MATCH([1]Water!B15,'[1]Linker and Metal Data'!$F$2:$F$20,0),4)</f>
+        <v>82.1</v>
+      </c>
+      <c r="K29">
+        <f>INDEX('[1]Linker and Metal Data'!$F$2:$J$20,MATCH([1]Water!B15,'[1]Linker and Metal Data'!$F$2:$F$20,0),5)</f>
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>1990</v>
+      </c>
+      <c r="M29">
         <v>1</v>
-      </c>
-      <c r="H29">
-        <v>0.76388888888888884</v>
-      </c>
-      <c r="I29">
-        <v>0.5</v>
-      </c>
-      <c r="J29">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="K29">
-        <v>2</v>
-      </c>
-      <c r="L29">
-        <v>0.60322580645161294</v>
-      </c>
-      <c r="M29">
-        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="B30" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C30" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="D30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E30">
-        <v>0.2</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="F30">
-        <v>0.9375</v>
+        <f>INDEX('[1]Linker and Metal Data'!$F$2:$H$20, MATCH([1]Water!B37,'[1]Linker and Metal Data'!$F$2:$F$20,0),3)</f>
+        <v>4</v>
       </c>
       <c r="G30">
+        <f>INDEX('[1]Linker and Metal Data'!$A$2:$D$14, MATCH([1]Water!C37,'[1]Linker and Metal Data'!$A$2:$A$14,0),4)</f>
         <v>0</v>
       </c>
-      <c r="H30">
-        <v>0.60648148148148151</v>
+      <c r="H30" s="1">
+        <f>INDEX('[1]Linker and Metal Data'!$A$2:$D$14, MATCH([1]Water!C37,'[1]Linker and Metal Data'!$A$2:$A$14,0),2)</f>
+        <v>1.33</v>
       </c>
       <c r="I30">
-        <v>0.5</v>
-      </c>
-      <c r="J30">
-        <v>0.9375</v>
+        <v>4</v>
+      </c>
+      <c r="J30" s="1">
+        <f>INDEX('[1]Linker and Metal Data'!$F$2:$I$20,MATCH([1]Water!B37,'[1]Linker and Metal Data'!$F$2:$F$20,0),4)</f>
+        <v>166.13</v>
       </c>
       <c r="K30">
-        <v>2</v>
+        <f>INDEX('[1]Linker and Metal Data'!$F$2:$J$20,MATCH([1]Water!B37,'[1]Linker and Metal Data'!$F$2:$F$20,0),5)</f>
+        <v>4</v>
       </c>
       <c r="L30">
-        <v>0.80645161290322576</v>
+        <v>415</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C31" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E31">
-        <v>0.2</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="F31">
-        <v>0.96666666666666667</v>
+        <f>INDEX('[1]Linker and Metal Data'!$F$2:$H$20, MATCH([1]Water!B16,'[1]Linker and Metal Data'!$F$2:$F$20,0),3)</f>
+        <v>4</v>
       </c>
       <c r="G31">
-        <v>0.5</v>
-      </c>
-      <c r="H31">
-        <v>0.71759259259259256</v>
+        <f>INDEX('[1]Linker and Metal Data'!$A$2:$D$14, MATCH([1]Water!C16,'[1]Linker and Metal Data'!$A$2:$A$14,0),4)</f>
+        <v>1</v>
+      </c>
+      <c r="H31" s="1">
+        <f>INDEX('[1]Linker and Metal Data'!$A$2:$D$14, MATCH([1]Water!C16,'[1]Linker and Metal Data'!$A$2:$A$14,0),2)</f>
+        <v>1.63</v>
       </c>
       <c r="I31">
-        <v>0.5</v>
-      </c>
-      <c r="J31">
-        <v>0.96666666666666667</v>
+        <f>INDEX('[1]Linker and Metal Data'!$A$2:$D$14, MATCH([1]Water!C16,'[1]Linker and Metal Data'!$A$2:$A$14,0),3)</f>
+        <v>4</v>
+      </c>
+      <c r="J31" s="1">
+        <f>INDEX('[1]Linker and Metal Data'!$F$2:$I$20,MATCH([1]Water!B16,'[1]Linker and Metal Data'!$F$2:$F$20,0),4)</f>
+        <v>166.13</v>
       </c>
       <c r="K31">
-        <v>2</v>
+        <f>INDEX('[1]Linker and Metal Data'!$F$2:$J$20,MATCH([1]Water!B16,'[1]Linker and Metal Data'!$F$2:$F$20,0),5)</f>
+        <v>4</v>
       </c>
       <c r="L31">
-        <v>0.83870967741935487</v>
+        <v>1150</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B32" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C32" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D32" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="E32">
-        <v>0.2</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="F32">
-        <v>0.53749999999999998</v>
+        <f>INDEX('[1]Linker and Metal Data'!$F$2:$H$20, MATCH([1]Water!B27,'[1]Linker and Metal Data'!$F$2:$F$20,0),3)</f>
+        <v>9.3000000000000007</v>
       </c>
       <c r="G32">
-        <v>0.7</v>
-      </c>
-      <c r="H32">
-        <v>0.87037037037037024</v>
+        <f>INDEX('[1]Linker and Metal Data'!$A$2:$D$14, MATCH([1]Water!C27,'[1]Linker and Metal Data'!$A$2:$A$14,0),4)</f>
+        <v>10</v>
+      </c>
+      <c r="H32" s="1">
+        <f>INDEX('[1]Linker and Metal Data'!$A$2:$D$14, MATCH([1]Water!C27,'[1]Linker and Metal Data'!$A$2:$A$14,0),2)</f>
+        <v>1.65</v>
       </c>
       <c r="I32">
-        <v>0.5</v>
-      </c>
-      <c r="J32">
-        <v>0.53749999999999998</v>
+        <f>INDEX('[1]Linker and Metal Data'!$A$2:$D$14, MATCH([1]Water!C27,'[1]Linker and Metal Data'!$A$2:$A$14,0),3)</f>
+        <v>2</v>
+      </c>
+      <c r="J32" s="1">
+        <f>INDEX('[1]Linker and Metal Data'!$F$2:$I$20,MATCH([1]Water!B27,'[1]Linker and Metal Data'!$F$2:$F$20,0),4)</f>
+        <v>83.09</v>
       </c>
       <c r="K32">
+        <f>INDEX('[1]Linker and Metal Data'!$F$2:$J$20,MATCH([1]Water!B27,'[1]Linker and Metal Data'!$F$2:$F$20,0),5)</f>
         <v>2</v>
       </c>
       <c r="L32">
-        <v>0.4</v>
+        <v>1870</v>
       </c>
       <c r="M32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="B33" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" t="s">
+        <v>64</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F33">
+        <f>INDEX('[1]Linker and Metal Data'!$F$2:$H$20, MATCH([1]Water!B2,'[1]Linker and Metal Data'!$F$2:$F$20,0),3)</f>
+        <v>14.4</v>
+      </c>
+      <c r="G33">
+        <f>INDEX('[1]Linker and Metal Data'!$A$2:$D$14, MATCH([1]Water!C2,'[1]Linker and Metal Data'!$A$2:$A$14,0),4)</f>
+        <v>7</v>
+      </c>
+      <c r="H33" s="1">
+        <f>INDEX('[1]Linker and Metal Data'!$A$2:$D$14, MATCH([1]Water!C2,'[1]Linker and Metal Data'!$A$2:$A$14,0),2)</f>
+        <v>1.88</v>
+      </c>
+      <c r="I33">
+        <f>INDEX('[1]Linker and Metal Data'!$A$2:$D$14, MATCH([1]Water!C2,'[1]Linker and Metal Data'!$A$2:$A$14,0),3)</f>
+        <v>2</v>
+      </c>
+      <c r="J33" s="1" t="str">
+        <f>INDEX('[1]Linker and Metal Data'!$F$2:$I$20,MATCH([1]Water!B2,'[1]Linker and Metal Data'!$F$2:$F$20,0),4)</f>
+        <v>276.3 </v>
+      </c>
+      <c r="K33">
+        <f>INDEX('[1]Linker and Metal Data'!$F$2:$J$20,MATCH([1]Water!B2,'[1]Linker and Metal Data'!$F$2:$F$20,0),5)</f>
+        <v>6</v>
+      </c>
+      <c r="L33">
+        <v>1590</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" t="s">
         <v>19</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F34">
+        <f>INDEX('[1]Linker and Metal Data'!$F$2:$H$20, MATCH([1]Water!B6,'[1]Linker and Metal Data'!$F$2:$F$20,0),3)</f>
+        <v>3.83</v>
+      </c>
+      <c r="G34">
+        <f>INDEX('[1]Linker and Metal Data'!$A$2:$D$14, MATCH([1]Water!C6,'[1]Linker and Metal Data'!$A$2:$A$14,0),4)</f>
+        <v>8</v>
+      </c>
+      <c r="H34" s="1">
+        <f>INDEX('[1]Linker and Metal Data'!$A$2:$D$14, MATCH([1]Water!C6,'[1]Linker and Metal Data'!$A$2:$A$14,0),2)</f>
+        <v>1.91</v>
+      </c>
+      <c r="I34">
+        <f>INDEX('[1]Linker and Metal Data'!$A$2:$D$14, MATCH([1]Water!C6,'[1]Linker and Metal Data'!$A$2:$A$14,0),3)</f>
+        <v>2</v>
+      </c>
+      <c r="J34" s="1">
+        <f>INDEX('[1]Linker and Metal Data'!$F$2:$I$20,MATCH([1]Water!B6,'[1]Linker and Metal Data'!$F$2:$F$20,0),4)</f>
+        <v>210.14</v>
+      </c>
+      <c r="K34">
+        <f>INDEX('[1]Linker and Metal Data'!$F$2:$J$20,MATCH([1]Water!B6,'[1]Linker and Metal Data'!$F$2:$F$20,0),5)</f>
+        <v>6</v>
+      </c>
+      <c r="L34">
+        <v>1090</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" t="s">
+        <v>64</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F35">
+        <f>INDEX('[1]Linker and Metal Data'!$F$2:$H$20, MATCH([1]Water!B20,'[1]Linker and Metal Data'!$F$2:$F$20,0),3)</f>
+        <v>14.4</v>
+      </c>
+      <c r="G35">
+        <f>INDEX('[1]Linker and Metal Data'!$A$2:$D$14, MATCH([1]Water!C20,'[1]Linker and Metal Data'!$A$2:$A$14,0),4)</f>
+        <v>9</v>
+      </c>
+      <c r="H35" s="1">
+        <f>INDEX('[1]Linker and Metal Data'!$A$2:$D$14, MATCH([1]Water!C20,'[1]Linker and Metal Data'!$A$2:$A$14,0),2)</f>
+        <v>1.9</v>
+      </c>
+      <c r="I35">
+        <f>INDEX('[1]Linker and Metal Data'!$A$2:$D$14, MATCH([1]Water!C20,'[1]Linker and Metal Data'!$A$2:$A$14,0),3)</f>
+        <v>2</v>
+      </c>
+      <c r="J35" s="1" t="str">
+        <f>INDEX('[1]Linker and Metal Data'!$F$2:$I$20,MATCH([1]Water!B20,'[1]Linker and Metal Data'!$F$2:$F$20,0),4)</f>
+        <v>276.3 </v>
+      </c>
+      <c r="K35">
+        <f>INDEX('[1]Linker and Metal Data'!$F$2:$J$20,MATCH([1]Water!B20,'[1]Linker and Metal Data'!$F$2:$F$20,0),5)</f>
+        <v>6</v>
+      </c>
+      <c r="L35">
+        <v>2160</v>
+      </c>
+      <c r="M35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" t="s">
+        <v>41</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <f>INDEX('[1]Linker and Metal Data'!$F$2:$H$20, MATCH([1]Water!B32,'[1]Linker and Metal Data'!$F$2:$F$20,0),3)</f>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="G36">
+        <f>INDEX('[1]Linker and Metal Data'!$A$2:$D$14, MATCH([1]Water!C32,'[1]Linker and Metal Data'!$A$2:$A$14,0),4)</f>
+        <v>9</v>
+      </c>
+      <c r="H36" s="1">
+        <f>INDEX('[1]Linker and Metal Data'!$A$2:$D$14, MATCH([1]Water!C32,'[1]Linker and Metal Data'!$A$2:$A$14,0),2)</f>
+        <v>1.9</v>
+      </c>
+      <c r="I36">
+        <v>2</v>
+      </c>
+      <c r="J36" s="1">
+        <f>INDEX('[1]Linker and Metal Data'!$F$2:$I$20,MATCH([1]Water!B32,'[1]Linker and Metal Data'!$F$2:$F$20,0),4)</f>
+        <v>279.26</v>
+      </c>
+      <c r="K36">
+        <f>INDEX('[1]Linker and Metal Data'!$F$2:$J$20,MATCH([1]Water!B32,'[1]Linker and Metal Data'!$F$2:$F$20,0),5)</f>
+        <v>6</v>
+      </c>
+      <c r="L36">
+        <v>1900</v>
+      </c>
+      <c r="M36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>75</v>
+      </c>
+      <c r="B37" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" t="s">
         <v>28</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D37" t="s">
         <v>26</v>
       </c>
-      <c r="E33">
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F37">
+        <f>INDEX('[1]Linker and Metal Data'!$F$2:$H$20, MATCH([1]Water!B31,'[1]Linker and Metal Data'!$F$2:$F$20,0),3)</f>
+        <v>4</v>
+      </c>
+      <c r="G37">
+        <f>INDEX('[1]Linker and Metal Data'!$A$2:$D$14, MATCH([1]Water!C31,'[1]Linker and Metal Data'!$A$2:$A$14,0),4)</f>
+        <v>3</v>
+      </c>
+      <c r="H37" s="1">
+        <f>INDEX('[1]Linker and Metal Data'!$A$2:$D$14, MATCH([1]Water!C31,'[1]Linker and Metal Data'!$A$2:$A$14,0),2)</f>
+        <v>1.66</v>
+      </c>
+      <c r="I37">
+        <v>3</v>
+      </c>
+      <c r="J37" s="1">
+        <f>INDEX('[1]Linker and Metal Data'!$F$2:$I$20,MATCH([1]Water!B31,'[1]Linker and Metal Data'!$F$2:$F$20,0),4)</f>
+        <v>166.13</v>
+      </c>
+      <c r="K37">
+        <f>INDEX('[1]Linker and Metal Data'!$F$2:$J$20,MATCH([1]Water!B31,'[1]Linker and Metal Data'!$F$2:$F$20,0),5)</f>
+        <v>4</v>
+      </c>
+      <c r="L37">
+        <v>3100</v>
+      </c>
+      <c r="M37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" t="s">
+        <v>26</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F38">
+        <f>INDEX('[1]Linker and Metal Data'!$F$2:$H$20, MATCH([1]Water!B7,'[1]Linker and Metal Data'!$F$2:$F$20,0),3)</f>
+        <v>4</v>
+      </c>
+      <c r="G38">
+        <f>INDEX('[1]Linker and Metal Data'!$A$2:$D$14, MATCH([1]Water!C7,'[1]Linker and Metal Data'!$A$2:$A$14,0),4)</f>
+        <v>10</v>
+      </c>
+      <c r="H38" s="1">
+        <f>INDEX('[1]Linker and Metal Data'!$A$2:$D$14, MATCH([1]Water!C7,'[1]Linker and Metal Data'!$A$2:$A$14,0),2)</f>
+        <v>1.65</v>
+      </c>
+      <c r="I38">
+        <f>INDEX('[1]Linker and Metal Data'!$A$2:$D$14, MATCH([1]Water!C7,'[1]Linker and Metal Data'!$A$2:$A$14,0),3)</f>
+        <v>2</v>
+      </c>
+      <c r="J38" s="1">
+        <f>INDEX('[1]Linker and Metal Data'!$F$2:$I$20,MATCH([1]Water!B7,'[1]Linker and Metal Data'!$F$2:$F$20,0),4)</f>
+        <v>166.13</v>
+      </c>
+      <c r="K38">
+        <f>INDEX('[1]Linker and Metal Data'!$F$2:$J$20,MATCH([1]Water!B7,'[1]Linker and Metal Data'!$F$2:$F$20,0),5)</f>
+        <v>4</v>
+      </c>
+      <c r="L38">
+        <v>2900</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39" t="s">
+        <v>26</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F39">
+        <f>INDEX('[1]Linker and Metal Data'!$F$2:$H$20, MATCH([1]Water!B40,'[1]Linker and Metal Data'!$F$2:$F$20,0),3)</f>
+        <v>3.83</v>
+      </c>
+      <c r="G39">
+        <f>INDEX('[1]Linker and Metal Data'!$A$2:$D$14, MATCH([1]Water!C40,'[1]Linker and Metal Data'!$A$2:$A$14,0),4)</f>
+        <v>0</v>
+      </c>
+      <c r="H39" s="1">
+        <f>INDEX('[1]Linker and Metal Data'!$A$2:$D$14, MATCH([1]Water!C40,'[1]Linker and Metal Data'!$A$2:$A$14,0),2)</f>
+        <v>1.61</v>
+      </c>
+      <c r="I39">
+        <v>3</v>
+      </c>
+      <c r="J39" s="1">
+        <f>INDEX('[1]Linker and Metal Data'!$F$2:$I$20,MATCH([1]Water!B40,'[1]Linker and Metal Data'!$F$2:$F$20,0),4)</f>
+        <v>210.14</v>
+      </c>
+      <c r="K39">
+        <f>INDEX('[1]Linker and Metal Data'!$F$2:$J$20,MATCH([1]Water!B40,'[1]Linker and Metal Data'!$F$2:$F$20,0),5)</f>
+        <v>6</v>
+      </c>
+      <c r="L39">
+        <v>630</v>
+      </c>
+      <c r="M39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" t="s">
+        <v>47</v>
+      </c>
+      <c r="D40" t="s">
+        <v>27</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F33">
-        <v>0.26597222222222222</v>
-      </c>
-      <c r="G33">
-        <v>0.3</v>
-      </c>
-      <c r="H33">
-        <v>0.76851851851851838</v>
-      </c>
-      <c r="I33">
-        <v>0.75</v>
-      </c>
-      <c r="J33">
-        <v>0.26597222222222222</v>
-      </c>
-      <c r="K33">
+      <c r="F40">
+        <f>INDEX('[1]Linker and Metal Data'!$F$2:$H$20, MATCH([1]Water!B9,'[1]Linker and Metal Data'!$F$2:$F$20,0),3)</f>
+        <v>13.92</v>
+      </c>
+      <c r="G40">
+        <f>INDEX('[1]Linker and Metal Data'!$A$2:$D$14, MATCH([1]Water!C9,'[1]Linker and Metal Data'!$A$2:$A$14,0),4)</f>
+        <v>5</v>
+      </c>
+      <c r="H40" s="1">
+        <f>INDEX('[1]Linker and Metal Data'!$A$2:$D$14, MATCH([1]Water!C9,'[1]Linker and Metal Data'!$A$2:$A$14,0),2)</f>
+        <v>1.55</v>
+      </c>
+      <c r="I40">
+        <f>INDEX('[1]Linker and Metal Data'!$A$2:$D$14, MATCH([1]Water!C9,'[1]Linker and Metal Data'!$A$2:$A$14,0),3)</f>
+        <v>2</v>
+      </c>
+      <c r="J40" s="1">
+        <f>INDEX('[1]Linker and Metal Data'!$F$2:$I$20,MATCH([1]Water!B9,'[1]Linker and Metal Data'!$F$2:$F$20,0),4)</f>
+        <v>82.1</v>
+      </c>
+      <c r="K40">
+        <f>INDEX('[1]Linker and Metal Data'!$F$2:$J$20,MATCH([1]Water!B9,'[1]Linker and Metal Data'!$F$2:$F$20,0),5)</f>
+        <v>2</v>
+      </c>
+      <c r="L40">
+        <v>2600</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" t="s">
+        <v>38</v>
+      </c>
+      <c r="D41" t="s">
+        <v>26</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F41">
+        <f>INDEX('[1]Linker and Metal Data'!$F$2:$H$20, MATCH([1]Water!B22,'[1]Linker and Metal Data'!$F$2:$F$20,0),3)</f>
+        <v>4</v>
+      </c>
+      <c r="G41">
+        <f>INDEX('[1]Linker and Metal Data'!$A$2:$D$14, MATCH([1]Water!C22,'[1]Linker and Metal Data'!$A$2:$A$14,0),4)</f>
         <v>6</v>
       </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>3</v>
+      <c r="H41" s="1">
+        <f>INDEX('[1]Linker and Metal Data'!$A$2:$D$14, MATCH([1]Water!C22,'[1]Linker and Metal Data'!$A$2:$A$14,0),2)</f>
+        <v>1.83</v>
+      </c>
+      <c r="I41">
+        <f>INDEX('[1]Linker and Metal Data'!$A$2:$D$14, MATCH([1]Water!C22,'[1]Linker and Metal Data'!$A$2:$A$14,0),3)</f>
+        <v>2</v>
+      </c>
+      <c r="J41" s="1">
+        <f>INDEX('[1]Linker and Metal Data'!$F$2:$I$20,MATCH([1]Water!B22,'[1]Linker and Metal Data'!$F$2:$F$20,0),4)</f>
+        <v>166.13</v>
+      </c>
+      <c r="K41">
+        <f>INDEX('[1]Linker and Metal Data'!$F$2:$J$20,MATCH([1]Water!B22,'[1]Linker and Metal Data'!$F$2:$F$20,0),5)</f>
+        <v>4</v>
+      </c>
+      <c r="L41" s="1">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N41">
+    <sortCondition ref="N2:N41"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>